--- a/Proyectos Evaluados/Limar BESS Standalone/Antecedentes PF - Limar_V2.xlsx
+++ b/Proyectos Evaluados/Limar BESS Standalone/Antecedentes PF - Limar_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayal\Desktop\ejecucion-modelos\Proyectos Evaluados\Limar BESS Standalone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B2522-CEF5-4AA5-B7CA-2D5B6AF087B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9033E40-A49F-4D05-9528-1BD28F3D447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="7620" yWindow="828" windowWidth="17304" windowHeight="8892" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Antecedentes PF" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>BESS Limar</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>410 MWp 2460 MWh (6 hrs)</t>
+  </si>
+  <si>
+    <t>Se cambio el valor del capex</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,6 +461,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -797,7 +806,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,10 +1146,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1161,7 @@
     <col min="9" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
@@ -1182,7 +1191,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
@@ -1222,27 +1231,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.123</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.127</v>
-      </c>
-      <c r="E6" s="10">
-        <v>133.30000000000001</v>
-      </c>
-      <c r="F6" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="G6" s="10">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="22">
+        <v>0.1361</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="21">
+        <v>152.36000000000001</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="G6" s="21">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1294,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1290,7 +1302,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1298,7 +1310,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1313,27 +1325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -1594,10 +1585,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B83695-4F27-4138-8D94-5A1593EFE67E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{539A1CE6-B238-4BE8-A41B-F6154D1BB881}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1614,20 +1637,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{539A1CE6-B238-4BE8-A41B-F6154D1BB881}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B83695-4F27-4138-8D94-5A1593EFE67E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Limar BESS Standalone/Antecedentes PF - Limar_V2.xlsx
+++ b/Proyectos Evaluados/Limar BESS Standalone/Antecedentes PF - Limar_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayal\Desktop\ejecucion-modelos\Proyectos Evaluados\Limar BESS Standalone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9033E40-A49F-4D05-9528-1BD28F3D447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91DE934-265D-44C2-8644-37228BA156FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="828" windowWidth="17304" windowHeight="8892" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Antecedentes PF" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>BESS Limar</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>410 MWp 2460 MWh (6 hrs)</t>
-  </si>
-  <si>
-    <t>Se cambio el valor del capex</t>
   </si>
 </sst>
 </file>
@@ -435,6 +432,12 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,12 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,7 +803,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,12 +815,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -840,7 +837,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -854,7 +851,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -866,7 +863,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -878,7 +875,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -890,7 +887,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -904,7 +901,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -916,7 +913,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -942,7 +939,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -956,7 +953,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -968,7 +965,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -980,7 +977,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
@@ -992,7 +989,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1006,7 +1003,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1015,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1030,7 +1027,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1039,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1054,7 +1051,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1063,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1075,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1090,7 +1087,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1104,7 +1101,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1117,7 +1114,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
@@ -1146,10 +1143,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1158,7 @@
     <col min="9" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
@@ -1191,7 +1188,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
@@ -1231,30 +1228,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="13">
         <v>0.1361</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="12">
         <v>152.36000000000001</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="12">
         <v>5.7</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="12">
         <v>59</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
@@ -1294,7 +1288,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1302,7 +1296,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1310,7 +1304,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1325,6 +1319,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -1585,28 +1600,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B83695-4F27-4138-8D94-5A1593EFE67E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCD89EE-FF3D-4DBE-8973-3AE08BFB2688}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{539A1CE6-B238-4BE8-A41B-F6154D1BB881}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1623,23 +1636,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCD89EE-FF3D-4DBE-8973-3AE08BFB2688}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B83695-4F27-4138-8D94-5A1593EFE67E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>